--- a/data/refcamps.xlsx
+++ b/data/refcamps.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="1200"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23016" windowHeight="1200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Kenya</t>
   </si>
@@ -153,13 +153,20 @@
   </si>
   <si>
     <t>Mbéra</t>
+  </si>
+  <si>
+    <t>Azraq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +203,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -220,11 +234,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -247,8 +262,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -562,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,40 +657,40 @@
       <c r="D2" s="2">
         <v>34.842354</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="12">
         <v>163167</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="12">
         <v>184370</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="12">
         <v>132606</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="12">
         <v>153959</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="12">
         <v>128540</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="12">
         <v>107205</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="12">
         <v>85862</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="12">
         <v>69822</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="12">
         <v>64791</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="12">
         <v>53068</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="12">
         <v>62497</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="12">
         <v>90457</v>
       </c>
     </row>
@@ -690,41 +707,41 @@
       <c r="D3" s="2">
         <v>31.552734999999998</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="12">
         <v>161094</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="12">
         <v>103583</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="12">
         <v>85071</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="12">
         <v>96926</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="12">
         <v>11986</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="12">
         <v>9279</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="12">
         <f>AVERAGE(J3,L3)</f>
         <v>8322</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="12">
         <v>7365</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="12">
         <v>28000</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="12">
         <v>21714</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="12">
         <v>52784</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="12">
         <v>54051</v>
       </c>
     </row>
@@ -741,40 +758,40 @@
       <c r="D4" s="2">
         <v>-8.1462535000000003</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
         <v>90000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="12">
         <v>90000</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="12">
         <v>90000</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="12">
         <v>90000</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="12">
         <v>90000</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="12">
         <v>90000</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="12">
         <v>90000</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="12">
         <v>90000</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="12">
         <v>90000</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="12">
         <v>90000</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="12">
         <v>90000</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="12">
         <v>90000</v>
       </c>
     </row>
@@ -791,40 +808,40 @@
       <c r="D5" s="2">
         <v>40.374656999999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="12">
         <v>83012</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="12">
         <v>102994</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="12">
         <v>104596</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="12">
         <v>106968</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="12">
         <v>114729</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="12">
         <v>139483</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="12">
         <v>137528</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="12">
         <v>101506</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="12">
         <v>83518</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="12">
         <v>90403</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="12">
         <v>70412</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="12">
         <v>59185</v>
       </c>
     </row>
@@ -841,42 +858,42 @@
       <c r="D6" s="2">
         <v>36.316732999999999</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
         <v>79737</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="12">
         <f>(E6+G6)/2</f>
         <v>79510.5</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="12">
         <v>79284</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="12">
         <v>84773</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="12">
         <v>145209</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>5</v>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1</v>
+      </c>
+      <c r="O6" s="12">
+        <v>1</v>
+      </c>
+      <c r="P6" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -892,40 +909,40 @@
       <c r="D7" s="2">
         <v>40.282609999999998</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
         <v>69415</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="12">
         <v>83351</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="12">
         <v>84209</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="12">
         <v>88486</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="12">
         <v>104565</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="12">
         <v>121127</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="12">
         <v>122214</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="12">
         <v>93470</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="12">
         <v>93179</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="12">
         <v>65581</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="12">
         <v>39626</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="12">
         <v>39526</v>
       </c>
     </row>
@@ -942,40 +959,40 @@
       <c r="D8" s="2">
         <v>40.313465999999998</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
         <v>62975</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="12">
         <v>76293</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="12">
         <v>77299</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="12">
         <v>83750</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="12">
         <v>99761</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="12">
         <v>98294</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="12">
         <v>118972</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="12">
         <v>97610</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="12">
         <v>79424</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="12">
         <v>79469</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="12">
         <v>61832</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="12">
         <v>54157</v>
       </c>
     </row>
@@ -992,41 +1009,41 @@
       <c r="D9" s="2">
         <v>13.974608999999999</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="12">
         <v>61637</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="12">
         <v>60157</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="12">
         <v>51240</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="12">
         <v>24667</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12">
+        <v>1</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1042,42 +1059,42 @@
       <c r="D10" s="2">
         <v>30.949444</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
         <v>52904</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="12">
         <v>44829</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="12">
         <v>37175</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="12">
         <v>66691</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="12">
         <f>(H10+J10)/2</f>
         <v>65532</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="12">
         <v>64373</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="12">
         <v>57500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="12">
         <f>(K10+M10)/2</f>
         <v>54874.5</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="12">
         <v>52249</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="12">
         <v>42113</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="12">
         <v>33176</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="12">
         <v>25692</v>
       </c>
     </row>
@@ -1094,41 +1111,41 @@
       <c r="D11" s="2">
         <v>40.329450000000001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="12">
         <v>33095</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="12">
         <v>49271</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="12">
         <v>50802</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="12">
         <v>52310</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="12">
         <v>65693</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="12">
         <v>69269</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="12">
         <v>64945</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>5</v>
+      <c r="L11" s="12">
+        <v>1</v>
+      </c>
+      <c r="M11" s="12">
+        <v>1</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1</v>
+      </c>
+      <c r="O11" s="12">
+        <v>1</v>
+      </c>
+      <c r="P11" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1144,41 +1161,41 @@
       <c r="D12" s="2">
         <v>34.269300000000001</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="12">
         <v>69597</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="12">
         <v>52479</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="12">
         <v>49066</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>5</v>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1194,41 +1211,41 @@
       <c r="D13" s="2">
         <v>34.733168333000002</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="12">
         <v>56989</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="12">
         <v>47835</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>5</v>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1</v>
+      </c>
+      <c r="M13" s="12">
+        <v>1</v>
+      </c>
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
+      <c r="O13" s="12">
+        <v>1</v>
+      </c>
+      <c r="P13" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1244,41 +1261,41 @@
       <c r="D14" s="2">
         <v>34.151000000000003</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="12">
         <v>51272</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="12">
         <v>47795</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="12">
         <v>46123</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1</v>
+      </c>
+      <c r="O14" s="12">
+        <v>1</v>
+      </c>
+      <c r="P14" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1294,42 +1311,42 @@
       <c r="D15" s="2">
         <v>34.5</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="12">
         <v>63952</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="12">
         <f>(E15+G15)/2</f>
         <v>58633</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="12">
         <v>53314</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="12">
         <v>53218</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="12">
         <v>42044</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="12">
         <v>34247</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="12">
         <v>22692</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="12">
         <v>21770</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="12">
         <v>20202</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="12">
         <f>(M15+O15)/2</f>
         <v>19464</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="12">
         <v>18726</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="12">
         <v>27175</v>
       </c>
     </row>
@@ -1346,42 +1363,42 @@
       <c r="D16" s="2">
         <v>-5.82223896</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="12">
         <v>52472</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="12">
         <f>AVERAGE(E16,G16)</f>
         <v>52663</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="12">
         <v>52854</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="12">
         <v>48910</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="12">
         <v>66392</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="12">
         <v>103831</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>5</v>
+      <c r="K16" s="12">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12">
+        <v>1</v>
+      </c>
+      <c r="M16" s="12">
+        <v>1</v>
+      </c>
+      <c r="N16" s="12">
+        <v>1</v>
+      </c>
+      <c r="O16" s="12">
+        <v>1</v>
+      </c>
+      <c r="P16" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1397,40 +1414,40 @@
       <c r="D17" s="2">
         <v>20.990895999999999</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="12">
         <v>42970</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="12">
         <v>41079</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="12">
         <v>39586</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="12">
         <v>41146</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="12">
         <v>39797</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="12">
         <v>37494</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="12">
         <v>35938</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="12">
         <v>34465</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="12">
         <v>32559</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="12">
         <v>32669</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="12">
         <v>30077</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="12">
         <v>28932</v>
       </c>
     </row>
@@ -1447,541 +1464,443 @@
       <c r="D18" s="2">
         <v>23.039735</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="12">
         <v>27839</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="12">
         <v>26644</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="12">
         <v>37919</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="12">
         <v>36466</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="12">
         <v>35415</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="12">
         <v>33267</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="12">
         <v>36168</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="12">
         <v>32206</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="12">
         <v>31189</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="12">
         <v>28430</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="12">
         <v>28035</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="12">
         <v>26786</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
+        <v>50087</v>
+      </c>
+      <c r="I19" s="12">
+        <v>47422</v>
+      </c>
+      <c r="J19" s="12">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12">
+        <v>28709</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1</v>
+      </c>
+      <c r="M19" s="12">
+        <v>1</v>
+      </c>
+      <c r="N19" s="12">
+        <v>1</v>
+      </c>
+      <c r="O19" s="12">
+        <v>1</v>
+      </c>
+      <c r="P19" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-4.2172340000000004</v>
+      </c>
+      <c r="D20" s="2">
+        <v>30.386783000000001</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12">
+        <v>57267</v>
+      </c>
+      <c r="I20" s="12">
+        <v>68888</v>
+      </c>
+      <c r="J20" s="12">
+        <v>68132</v>
+      </c>
+      <c r="K20" s="12">
+        <v>63551</v>
+      </c>
+      <c r="L20" s="12">
+        <v>62726</v>
+      </c>
+      <c r="M20" s="12">
+        <v>62184</v>
+      </c>
+      <c r="N20" s="12">
+        <v>49628</v>
+      </c>
+      <c r="O20" s="12">
+        <v>50841</v>
+      </c>
+      <c r="P20" s="12">
+        <v>52713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="10">
+        <v>31.908000000000001</v>
+      </c>
+      <c r="D21" s="10">
+        <v>36.588999999999999</v>
+      </c>
+      <c r="E21" s="12">
+        <v>53833</v>
+      </c>
+      <c r="F21" s="12">
+        <v>35449</v>
+      </c>
+      <c r="G21" s="12">
+        <v>25774</v>
+      </c>
+      <c r="H21" s="12">
+        <v>11207</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1</v>
+      </c>
+      <c r="J21" s="12">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12">
+        <v>1</v>
+      </c>
+      <c r="L21" s="12">
+        <v>1</v>
+      </c>
+      <c r="M21" s="12">
+        <v>1</v>
+      </c>
+      <c r="N21" s="12">
+        <v>1</v>
+      </c>
+      <c r="O21" s="12">
+        <v>1</v>
+      </c>
+      <c r="P21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.32172200000000001</v>
+      </c>
+      <c r="D25" s="10">
+        <v>30.630799</v>
+      </c>
+      <c r="E25" s="12">
+        <v>62192</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12">
+        <v>52489</v>
+      </c>
+      <c r="I25" s="12">
+        <v>1</v>
+      </c>
+      <c r="J25" s="12">
+        <v>29797</v>
+      </c>
+      <c r="K25" s="12">
+        <v>1</v>
+      </c>
+      <c r="L25" s="12">
+        <v>1</v>
+      </c>
+      <c r="M25" s="12">
+        <v>1</v>
+      </c>
+      <c r="N25" s="12">
+        <v>1</v>
+      </c>
+      <c r="O25" s="12">
+        <v>1</v>
+      </c>
+      <c r="P25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1.940341667</v>
+      </c>
+      <c r="D26" s="10">
+        <v>32.180172222000003</v>
+      </c>
+      <c r="E26" s="12">
+        <v>61970</v>
+      </c>
+      <c r="F26" s="12">
+        <v>61861</v>
+      </c>
+      <c r="G26" s="12">
+        <v>40290</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C27" s="10">
         <v>17.123983333000002</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D27" s="10">
         <v>98.387894443999997</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E27" s="3">
         <v>37261</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F27" s="3">
         <v>38055</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G27" s="3">
         <v>43255</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H27" s="3">
         <v>46978</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I27" s="3">
         <v>25156</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J27" s="3">
         <v>26690</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K27" s="3">
         <v>27629</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L27" s="3">
         <v>29188</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M27" s="3">
         <v>30073</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N27" s="3">
         <v>32862</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O27" s="3">
         <v>38130</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P27" s="3">
         <v>46148</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-    </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>13</v>
+      <c r="A28" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
-        <v>10.951584799999999</v>
+        <v>33.855795999999998</v>
       </c>
       <c r="D28" s="2">
-        <v>77.219536300000001</v>
+        <v>71.723603999999995</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <v>65057</v>
+        <v>48268</v>
       </c>
       <c r="I28" s="3">
-        <v>65674</v>
+        <v>52835</v>
       </c>
       <c r="J28" s="3">
-        <v>67165</v>
+        <v>53573</v>
       </c>
       <c r="K28" s="3">
-        <v>68152</v>
+        <v>54502</v>
       </c>
       <c r="L28" s="3">
-        <v>69998</v>
+        <v>61205</v>
       </c>
       <c r="M28" s="3">
-        <v>72883</v>
+        <v>58804</v>
       </c>
       <c r="N28" s="3">
-        <v>73286</v>
+        <v>58773</v>
       </c>
       <c r="O28" s="3">
-        <v>72934</v>
+        <v>66556</v>
       </c>
       <c r="P28" s="3">
-        <v>69609</v>
+        <v>74137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2">
+        <v>33.972774200000003</v>
+      </c>
+      <c r="D29" s="2">
+        <v>72.845726999999997</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <v>53816</v>
+      </c>
+      <c r="I29" s="3">
+        <v>56295</v>
+      </c>
+      <c r="J29" s="3">
+        <v>56820</v>
+      </c>
+      <c r="K29" s="3">
+        <v>58819</v>
+      </c>
+      <c r="L29" s="3">
+        <v>67332</v>
+      </c>
+      <c r="M29" s="3">
+        <v>61822</v>
+      </c>
+      <c r="N29" s="3">
+        <v>62293</v>
+      </c>
+      <c r="O29" s="3">
+        <v>65033</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>33.972774200000003</v>
+        <v>10.951584799999999</v>
       </c>
       <c r="D30" s="2">
-        <v>72.845726999999997</v>
+        <v>77.219536300000001</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <v>53816</v>
+        <v>65057</v>
       </c>
       <c r="I30" s="3">
-        <v>56295</v>
+        <v>65674</v>
       </c>
       <c r="J30" s="3">
-        <v>56820</v>
+        <v>67165</v>
       </c>
       <c r="K30" s="3">
-        <v>58819</v>
+        <v>68152</v>
       </c>
       <c r="L30" s="3">
-        <v>67332</v>
+        <v>69998</v>
       </c>
       <c r="M30" s="3">
-        <v>61822</v>
+        <v>72883</v>
       </c>
       <c r="N30" s="3">
-        <v>62293</v>
+        <v>73286</v>
       </c>
       <c r="O30" s="3">
-        <v>65033</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="2">
-        <v>33.855795999999998</v>
-      </c>
-      <c r="D31" s="2">
-        <v>71.723603999999995</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3">
-        <v>48268</v>
-      </c>
-      <c r="I31" s="3">
-        <v>52835</v>
-      </c>
-      <c r="J31" s="3">
-        <v>53573</v>
-      </c>
-      <c r="K31" s="3">
-        <v>54502</v>
-      </c>
-      <c r="L31" s="3">
-        <v>61205</v>
-      </c>
-      <c r="M31" s="3">
-        <v>58804</v>
-      </c>
-      <c r="N31" s="3">
-        <v>58773</v>
-      </c>
-      <c r="O31" s="3">
-        <v>66556</v>
-      </c>
-      <c r="P31" s="3">
-        <v>74137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3">
-        <v>53816</v>
-      </c>
-      <c r="I32" s="3">
-        <v>56295</v>
-      </c>
-      <c r="J32" s="3">
-        <v>56820</v>
-      </c>
-      <c r="K32" s="3">
-        <v>58819</v>
-      </c>
-      <c r="L32" s="3">
-        <v>67332</v>
-      </c>
-      <c r="M32" s="3">
-        <v>61822</v>
-      </c>
-      <c r="N32" s="3">
-        <v>62293</v>
-      </c>
-      <c r="O32" s="3">
-        <v>65033</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3">
-        <v>50087</v>
-      </c>
-      <c r="I33" s="3">
-        <v>47422</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
-        <v>28709</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="2">
-        <v>-4.2172340000000004</v>
-      </c>
-      <c r="D34" s="2">
-        <v>30.386783000000001</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3">
-        <v>57267</v>
-      </c>
-      <c r="I34" s="3">
-        <v>68888</v>
-      </c>
-      <c r="J34" s="3">
-        <v>68132</v>
-      </c>
-      <c r="K34" s="3">
-        <v>63551</v>
-      </c>
-      <c r="L34" s="3">
-        <v>62726</v>
-      </c>
-      <c r="M34" s="3">
-        <v>62184</v>
-      </c>
-      <c r="N34" s="3">
-        <v>49628</v>
-      </c>
-      <c r="O34" s="3">
-        <v>50841</v>
-      </c>
-      <c r="P34" s="3">
-        <v>52713</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3">
-        <v>57267</v>
-      </c>
-      <c r="I35" s="3">
-        <v>68888</v>
-      </c>
-      <c r="J35" s="3">
-        <v>68132</v>
-      </c>
-      <c r="K35" s="3">
-        <v>63551</v>
-      </c>
-      <c r="L35" s="3">
-        <v>62726</v>
-      </c>
-      <c r="M35" s="3">
-        <v>62184</v>
-      </c>
-      <c r="N35" s="3">
-        <v>49628</v>
-      </c>
-      <c r="O35" s="3">
-        <v>50841</v>
-      </c>
-      <c r="P35" s="3">
-        <v>52713</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0.32172200000000001</v>
-      </c>
-      <c r="D37" s="10">
-        <v>30.630799</v>
-      </c>
-      <c r="E37" s="3">
-        <v>62192</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3">
-        <v>52489</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J37" s="3">
-        <v>29797</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>-0.776389</v>
-      </c>
-      <c r="D38">
-        <v>30.949166999999999</v>
-      </c>
-      <c r="E38" s="1">
-        <v>64</v>
-      </c>
-      <c r="F38" s="3">
-        <v>52904</v>
-      </c>
-      <c r="G38">
-        <v>11427</v>
-      </c>
-      <c r="H38" s="3">
-        <v>66691</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J38" s="3">
-        <v>64373</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M38" s="3">
-        <v>52249</v>
-      </c>
-      <c r="N38" s="3">
-        <v>42113</v>
-      </c>
-      <c r="O38" s="3">
-        <v>33176</v>
-      </c>
-      <c r="P38" s="3">
-        <v>25692</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="10">
-        <v>1.940341667</v>
-      </c>
-      <c r="D39" s="10">
-        <v>32.180172222000003</v>
-      </c>
-      <c r="E39" s="3">
-        <v>61970</v>
-      </c>
-      <c r="F39" s="10">
-        <v>61861</v>
-      </c>
-      <c r="G39">
-        <v>40290</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
+        <v>72934</v>
+      </c>
+      <c r="P30" s="3">
+        <v>69609</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A25:P40">
-    <sortCondition ref="A25:A40"/>
+  <sortState ref="A23:P34">
+    <sortCondition ref="A23:A34"/>
   </sortState>
-  <conditionalFormatting sqref="E34:P35 F19 E39:P40 F38:P38 E37:P37 H19:P19">
-    <cfRule type="colorScale" priority="94">
+  <conditionalFormatting sqref="E34:P34 F27 H27:P27">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1990,8 +1909,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:P35 F19 E39:P40 F38:P38 E37:P37 H19:P19">
-    <cfRule type="colorScale" priority="97">
+  <conditionalFormatting sqref="E34:P34 F27 H27:P27">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2000,8 +1919,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:O28">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="I30:O30">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2010,8 +1929,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:O28">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="I30:O30">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2020,8 +1939,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:P19 E28:H28 E31:P33 E41:P1048576 P28 E2:P2 E27:P27">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="E27:P27">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2030,27 +1949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:P19 E2:P2">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:P19 E2:P2">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:P19 E28:H28 E31:P33 P28 E2:P2 E27:P27">
+  <conditionalFormatting sqref="E27:P27">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -2060,8 +1959,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:P18">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E27:P29 E30:H30 E35:P1048576 P30">
+    <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2070,28 +1969,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:P18">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:P18">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:P18">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="E27:P29 E30:H30 P30">
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2102,10 +1981,8 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" tooltip="Zaatari refugee camp" display="https://en.wikipedia.org/wiki/Zaatari_refugee_camp"/>
-    <hyperlink ref="B35" r:id="rId2" tooltip="Nyarugusu" display="https://en.wikipedia.org/wiki/Nyarugusu"/>
-    <hyperlink ref="B38" r:id="rId3" tooltip="Nakivale Refugee Settlement" display="https://en.wikipedia.org/wiki/Nakivale_Refugee_Settlement"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
 </worksheet>
 </file>